--- a/ac_fantasy_football/kicker_data_by_week.xlsx
+++ b/ac_fantasy_football/kicker_data_by_week.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4483ebec2dab5e3/Desktop/Python/fantasy_football/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4483ebec2dab5e3/Desktop/Python Rough Drafts/ac_fantasy_football/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_F25DC773A252ABDACC104886491D62825BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F7C1FB8-2258-42FA-BCB5-30A31CAE3A41}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_F25DC773A252ABDACC104886491D62825BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{440A1E3F-0748-465D-8B14-49FD23C34A70}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WK1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="WK5" sheetId="5" r:id="rId5"/>
     <sheet name="WK6" sheetId="6" r:id="rId6"/>
     <sheet name="WK7" sheetId="7" r:id="rId7"/>
+    <sheet name="WK8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4578" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5233" uniqueCount="509">
   <si>
     <t>Kickers</t>
   </si>
@@ -1465,6 +1466,99 @@
   </si>
   <si>
     <t>8.8</t>
+  </si>
+  <si>
+    <t>NFL Week 8</t>
+  </si>
+  <si>
+    <t>W 30-24</t>
+  </si>
+  <si>
+    <t>W 37-17</t>
+  </si>
+  <si>
+    <t>W 26-18</t>
+  </si>
+  <si>
+    <t>L 18-26</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>W 18-15</t>
+  </si>
+  <si>
+    <t>W 52-14</t>
+  </si>
+  <si>
+    <t>W 29-24</t>
+  </si>
+  <si>
+    <t>W 30-27</t>
+  </si>
+  <si>
+    <t>L 27-28</t>
+  </si>
+  <si>
+    <t>L 27-30</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>W 28-27</t>
+  </si>
+  <si>
+    <t>W 26-8</t>
+  </si>
+  <si>
+    <t>L 26-31</t>
+  </si>
+  <si>
+    <t>L 20-30</t>
+  </si>
+  <si>
+    <t>L 8-26</t>
+  </si>
+  <si>
+    <t>L 24-29</t>
+  </si>
+  <si>
+    <t>L 24-30</t>
+  </si>
+  <si>
+    <t>W 31-26</t>
+  </si>
+  <si>
+    <t>W 25-22</t>
+  </si>
+  <si>
+    <t>L 17-37</t>
+  </si>
+  <si>
+    <t>W 28-14</t>
+  </si>
+  <si>
+    <t>W 30-20</t>
+  </si>
+  <si>
+    <t>Greg ZuerleinIR</t>
+  </si>
+  <si>
+    <t>WA (Wed)</t>
+  </si>
+  <si>
+    <t>L 22-25</t>
+  </si>
+  <si>
+    <t>L 14-52</t>
+  </si>
+  <si>
+    <t>L 14-28</t>
+  </si>
+  <si>
+    <t>L 15-18</t>
   </si>
 </sst>
 </file>
@@ -15490,8 +15584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27957A5E-44F8-4CA0-85C4-2E3ADFF16A94}">
   <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17768,4 +17862,2499 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92854B5-3EB5-40B9-ACB2-12D1B51261C5}">
+  <dimension ref="A1:F256"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A193" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A195" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A197" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A199" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A200" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A201" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A202" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A203" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A204" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A205" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A206" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A207" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A208" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A209" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A210" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A211" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A212" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A213" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A214" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A215" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A216" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A217" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A218" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A219" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A220" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A221" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A222" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A223" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A224" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A225" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A226" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A227" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A228" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A229" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A230" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A231" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A232" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A233" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A234" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A235" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A236" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A237" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A238" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A239" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A240" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A241" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A242" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A243" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A244" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A245" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A246" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A247" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A248" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A249" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A250" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A251" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A252" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A253" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A254" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A255" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A256" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ac_fantasy_football/kicker_data_by_week.xlsx
+++ b/ac_fantasy_football/kicker_data_by_week.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4483ebec2dab5e3/Desktop/Python Rough Drafts/ac_fantasy_football/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_F25DC773A252ABDACC104886491D62825BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{440A1E3F-0748-465D-8B14-49FD23C34A70}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_F25DC773A252ABDACC104886491D62825BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34B4CA7A-15F7-4537-94A7-1CD5F17C7756}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17866,10 +17866,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92854B5-3EB5-40B9-ACB2-12D1B51261C5}">
-  <dimension ref="A1:F256"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17877,7 +17877,7 @@
     <col min="1" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17887,8 +17887,14 @@
       <c r="D1" s="1" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -17907,8 +17913,26 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>193</v>
       </c>
@@ -17924,18 +17948,72 @@
       <c r="F3" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -17951,18 +18029,72 @@
       <c r="F6" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H7" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -17978,18 +18110,72 @@
       <c r="F9" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H10" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H11" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>186</v>
       </c>
@@ -18005,18 +18191,72 @@
       <c r="F12" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H12" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>178</v>
       </c>
@@ -18032,18 +18272,72 @@
       <c r="F15" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H16" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H17" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>100</v>
       </c>
@@ -18059,18 +18353,72 @@
       <c r="F18" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H18" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H19" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H20" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>120</v>
       </c>
@@ -18086,18 +18434,72 @@
       <c r="F21" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H21" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H22" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>188</v>
       </c>
@@ -18113,18 +18515,72 @@
       <c r="F24" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H24" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H25" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H26" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -18140,18 +18596,72 @@
       <c r="F27" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H27" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H29" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>91</v>
       </c>
@@ -18167,18 +18677,72 @@
       <c r="F30" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H31" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H32" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
@@ -18194,18 +18758,72 @@
       <c r="F33" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H33" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>125</v>
       </c>
@@ -18221,18 +18839,72 @@
       <c r="F36" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>156</v>
       </c>
@@ -18248,18 +18920,72 @@
       <c r="F39" s="1" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>195</v>
       </c>
@@ -18275,18 +19001,72 @@
       <c r="F42" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -18302,18 +19082,72 @@
       <c r="F45" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>168</v>
       </c>
@@ -18329,18 +19163,72 @@
       <c r="F48" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>39</v>
       </c>
@@ -18356,18 +19244,54 @@
       <c r="F51" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>151</v>
       </c>
@@ -18384,17 +19308,17 @@
         <v>232</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
@@ -18411,17 +19335,17 @@
         <v>236</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>21</v>
       </c>
@@ -18438,17 +19362,17 @@
         <v>262</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>114</v>
       </c>
@@ -18465,7 +19389,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>115</v>
       </c>
@@ -19220,1138 +20144,6 @@
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A153" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A154" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A155" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A156" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A157" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A158" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A159" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A160" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A161" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A162" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A163" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A164" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A165" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A166" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A167" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A168" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A169" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A170" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A171" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A172" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A173" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A174" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A175" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A176" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A177" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A178" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A179" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A180" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A181" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A182" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A183" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A184" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A185" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A186" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A187" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A188" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A189" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A190" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A191" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A192" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A193" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A194" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A195" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A196" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A197" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A198" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A199" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A200" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A201" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A202" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A203" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A204" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A205" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A206" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A207" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A208" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A209" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A210" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A211" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A212" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A213" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A214" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A215" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A216" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A217" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A218" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A219" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A220" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A221" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A222" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A223" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A224" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A225" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A226" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A227" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A228" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A229" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A230" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A231" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A232" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A233" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A234" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A235" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A236" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A237" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A238" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A239" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A240" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A241" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A242" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A243" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A244" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A245" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A246" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A247" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A248" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A249" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A250" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A251" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A252" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A253" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A254" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A255" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A256" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/ac_fantasy_football/kicker_data_by_week.xlsx
+++ b/ac_fantasy_football/kicker_data_by_week.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4483ebec2dab5e3/Desktop/Python Rough Drafts/ac_fantasy_football/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_F25DC773A252ABDACC104886491D62825BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34B4CA7A-15F7-4537-94A7-1CD5F17C7756}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_F25DC773A252ABDACC104886491D62825BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70913290-2258-4344-A54C-D8107CC80BCF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WK1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="WK6" sheetId="6" r:id="rId6"/>
     <sheet name="WK7" sheetId="7" r:id="rId7"/>
     <sheet name="WK8" sheetId="8" r:id="rId8"/>
+    <sheet name="WK9" sheetId="9" r:id="rId9"/>
+    <sheet name="WK10" sheetId="10" r:id="rId10"/>
+    <sheet name="WK11" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5233" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7201" uniqueCount="584">
   <si>
     <t>Kickers</t>
   </si>
@@ -1559,6 +1562,231 @@
   </si>
   <si>
     <t>L 15-18</t>
+  </si>
+  <si>
+    <t>NFL Week 11</t>
+  </si>
+  <si>
+    <t>W 18-16</t>
+  </si>
+  <si>
+    <t>W 52-6</t>
+  </si>
+  <si>
+    <t>W 34-27</t>
+  </si>
+  <si>
+    <t>W 34-19</t>
+  </si>
+  <si>
+    <t>L 22-28</t>
+  </si>
+  <si>
+    <t>WA (Fri)</t>
+  </si>
+  <si>
+    <t>L 6-38</t>
+  </si>
+  <si>
+    <t>W 38-6</t>
+  </si>
+  <si>
+    <t>L 19-20</t>
+  </si>
+  <si>
+    <t>L 13-23</t>
+  </si>
+  <si>
+    <t>L 6-52</t>
+  </si>
+  <si>
+    <t>L 27-34</t>
+  </si>
+  <si>
+    <t>L 19-34</t>
+  </si>
+  <si>
+    <t>W 30-21</t>
+  </si>
+  <si>
+    <t>John Parker RomoJohn Parker Romo</t>
+  </si>
+  <si>
+    <t>John Parker Romo</t>
+  </si>
+  <si>
+    <t>W 23-13</t>
+  </si>
+  <si>
+    <t>Jake Moody</t>
+  </si>
+  <si>
+    <t>W 35-14</t>
+  </si>
+  <si>
+    <t>Zane GonzalezZane Gonzalez</t>
+  </si>
+  <si>
+    <t>Zane Gonzalez</t>
+  </si>
+  <si>
+    <t>L 16-18</t>
+  </si>
+  <si>
+    <t>L 21-30</t>
+  </si>
+  <si>
+    <t>W 28-22</t>
+  </si>
+  <si>
+    <t>W 20-19</t>
+  </si>
+  <si>
+    <t>Austin SeibertQ</t>
+  </si>
+  <si>
+    <t>Harrison ButkerIR</t>
+  </si>
+  <si>
+    <t>Will ReichardIR</t>
+  </si>
+  <si>
+    <t>L 14-35</t>
+  </si>
+  <si>
+    <t>Graham Gano</t>
+  </si>
+  <si>
+    <t>Greg JosephQ</t>
+  </si>
+  <si>
+    <t>Jude McAtamneyJude McAtamney</t>
+  </si>
+  <si>
+    <t>Jude McAtamney</t>
+  </si>
+  <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>-2.0</t>
+  </si>
+  <si>
+    <t>NFL Week 9</t>
+  </si>
+  <si>
+    <t>L 9-29</t>
+  </si>
+  <si>
+    <t>W 41-24</t>
+  </si>
+  <si>
+    <t>L 22-23</t>
+  </si>
+  <si>
+    <t>W 29-9</t>
+  </si>
+  <si>
+    <t>L 21-27</t>
+  </si>
+  <si>
+    <t>W 27-22</t>
+  </si>
+  <si>
+    <t>L 13-21</t>
+  </si>
+  <si>
+    <t>L 24-41</t>
+  </si>
+  <si>
+    <t>W 24-14</t>
+  </si>
+  <si>
+    <t>W 23-22</t>
+  </si>
+  <si>
+    <t>L 14-24</t>
+  </si>
+  <si>
+    <t>W 28-23</t>
+  </si>
+  <si>
+    <t>L 22-27</t>
+  </si>
+  <si>
+    <t>W 27-21</t>
+  </si>
+  <si>
+    <t>L 10-27</t>
+  </si>
+  <si>
+    <t>W 27-10</t>
+  </si>
+  <si>
+    <t>W 21-13</t>
+  </si>
+  <si>
+    <t>L 23-28</t>
+  </si>
+  <si>
+    <t>NFL Week 10</t>
+  </si>
+  <si>
+    <t>L 15-23</t>
+  </si>
+  <si>
+    <t>W 23-15</t>
+  </si>
+  <si>
+    <t>W 12-7</t>
+  </si>
+  <si>
+    <t>W 19-3</t>
+  </si>
+  <si>
+    <t>W 34-6</t>
+  </si>
+  <si>
+    <t>W 16-14</t>
+  </si>
+  <si>
+    <t>W 27-17</t>
+  </si>
+  <si>
+    <t>L 6-34</t>
+  </si>
+  <si>
+    <t>W 31-6</t>
+  </si>
+  <si>
+    <t>L 34-35</t>
+  </si>
+  <si>
+    <t>L 17-27</t>
+  </si>
+  <si>
+    <t>W 35-34</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>L 3-19</t>
+  </si>
+  <si>
+    <t>L 7-12</t>
+  </si>
+  <si>
+    <t>L 14-16</t>
+  </si>
+  <si>
+    <t>L 6-31</t>
+  </si>
+  <si>
+    <t>3/6</t>
+  </si>
+  <si>
+    <t>1/4</t>
   </si>
 </sst>
 </file>
@@ -4159,6 +4387,4586 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B66EFEC-0A49-4E39-AC0C-F291CA17E175}">
+  <dimension ref="A1:M152"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290C7293-A7F4-45C5-BACA-B3E49C45DE2E}">
+  <dimension ref="A1:M152"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{975AF976-2AAD-4FAA-A02E-052AFE6EC184}">
   <dimension ref="A1:M152"/>
@@ -17868,7 +22676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92854B5-3EB5-40B9-ACB2-12D1B51261C5}">
   <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
@@ -20149,4 +24957,2294 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92862408-1822-419E-BD14-E4FA09B0EBA0}">
+  <dimension ref="A1:M152"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ac_fantasy_football/kicker_data_by_week.xlsx
+++ b/ac_fantasy_football/kicker_data_by_week.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4483ebec2dab5e3/Desktop/Python Rough Drafts/ac_fantasy_football/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="11_F25DC773A252ABDACC104886491D62825BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70913290-2258-4344-A54C-D8107CC80BCF}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="11_F25DC773A252ABDACC104886491D62825BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{613C3A3F-AD8E-48A8-BB6F-CD64DD3C3F81}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WK1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="WK9" sheetId="9" r:id="rId9"/>
     <sheet name="WK10" sheetId="10" r:id="rId10"/>
     <sheet name="WK11" sheetId="11" r:id="rId11"/>
+    <sheet name="WK12" sheetId="12" r:id="rId12"/>
+    <sheet name="WK13" sheetId="13" r:id="rId13"/>
+    <sheet name="WK14" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7201" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9175" uniqueCount="647">
   <si>
     <t>Kickers</t>
   </si>
@@ -1787,6 +1790,195 @@
   </si>
   <si>
     <t>1/4</t>
+  </si>
+  <si>
+    <t>NFL Week 12</t>
+  </si>
+  <si>
+    <t>W 29-19</t>
+  </si>
+  <si>
+    <t>W 32-27</t>
+  </si>
+  <si>
+    <t>L 19-29</t>
+  </si>
+  <si>
+    <t>Spencer ShraderIR</t>
+  </si>
+  <si>
+    <t>W 34-15</t>
+  </si>
+  <si>
+    <t>W 34-26</t>
+  </si>
+  <si>
+    <t>L 27-32</t>
+  </si>
+  <si>
+    <t>W 38-10</t>
+  </si>
+  <si>
+    <t>W 24-6</t>
+  </si>
+  <si>
+    <t>Austin SeibertIR</t>
+  </si>
+  <si>
+    <t>L 26-34</t>
+  </si>
+  <si>
+    <t>W 30-7</t>
+  </si>
+  <si>
+    <t>W 16-6</t>
+  </si>
+  <si>
+    <t>L 6-24</t>
+  </si>
+  <si>
+    <t>L 10-38</t>
+  </si>
+  <si>
+    <t>L 6-16</t>
+  </si>
+  <si>
+    <t>L 7-30</t>
+  </si>
+  <si>
+    <t>Zane GonzalezO</t>
+  </si>
+  <si>
+    <t>L 15-34</t>
+  </si>
+  <si>
+    <t>Evan McPhersonIR</t>
+  </si>
+  <si>
+    <t>Matthew Wright</t>
+  </si>
+  <si>
+    <t>NFL Week 13</t>
+  </si>
+  <si>
+    <t>W 44-38</t>
+  </si>
+  <si>
+    <t>W 30-17</t>
+  </si>
+  <si>
+    <t>W 17-13</t>
+  </si>
+  <si>
+    <t>W 41-32</t>
+  </si>
+  <si>
+    <t>W 26-21</t>
+  </si>
+  <si>
+    <t>L 24-25</t>
+  </si>
+  <si>
+    <t>L 19-42</t>
+  </si>
+  <si>
+    <t>L 38-44</t>
+  </si>
+  <si>
+    <t>L 13-17</t>
+  </si>
+  <si>
+    <t>L 32-41</t>
+  </si>
+  <si>
+    <t>W 25-24</t>
+  </si>
+  <si>
+    <t>W 42-19</t>
+  </si>
+  <si>
+    <t>L 17-30</t>
+  </si>
+  <si>
+    <t>L 17-19</t>
+  </si>
+  <si>
+    <t>L 21-26</t>
+  </si>
+  <si>
+    <t>W 19-17</t>
+  </si>
+  <si>
+    <t>0/3</t>
+  </si>
+  <si>
+    <t>NFL Week 14</t>
+  </si>
+  <si>
+    <t>W 32-26</t>
+  </si>
+  <si>
+    <t>L 26-32</t>
+  </si>
+  <si>
+    <t>W 30-18</t>
+  </si>
+  <si>
+    <t>W 34-31</t>
+  </si>
+  <si>
+    <t>W 27-14</t>
+  </si>
+  <si>
+    <t>W 38-13</t>
+  </si>
+  <si>
+    <t>W 44-42</t>
+  </si>
+  <si>
+    <t>L 6-10</t>
+  </si>
+  <si>
+    <t>L 21-42</t>
+  </si>
+  <si>
+    <t>L 31-34</t>
+  </si>
+  <si>
+    <t>L 13-28</t>
+  </si>
+  <si>
+    <t>L 42-44</t>
+  </si>
+  <si>
+    <t>W 42-21</t>
+  </si>
+  <si>
+    <t>W 28-13</t>
+  </si>
+  <si>
+    <t>L 16-22</t>
+  </si>
+  <si>
+    <t>W 10-6</t>
+  </si>
+  <si>
+    <t>L 18-30</t>
+  </si>
+  <si>
+    <t>L 11-14</t>
+  </si>
+  <si>
+    <t>W 22-16</t>
+  </si>
+  <si>
+    <t>L 13-38</t>
+  </si>
+  <si>
+    <t>W 14-11</t>
+  </si>
+  <si>
+    <t>L 14-27</t>
   </si>
 </sst>
 </file>
@@ -4391,7 +4583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B66EFEC-0A49-4E39-AC0C-F291CA17E175}">
   <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
@@ -8960,6 +9152,6892 @@
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC3F99D-339F-4E23-AF8E-EAF5C6C47E04}">
+  <dimension ref="A1:M152"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7CF7B3-A824-4CE3-AD19-A2A43A01BEF6}">
+  <dimension ref="A1:M152"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7858673E-258B-46CA-B38A-FB2F7EEBE6EE}">
+  <dimension ref="A1:M152"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/ac_fantasy_football/kicker_data_by_week.xlsx
+++ b/ac_fantasy_football/kicker_data_by_week.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4483ebec2dab5e3/Desktop/Python Rough Drafts/ac_fantasy_football/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="11_F25DC773A252ABDACC104886491D62825BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{613C3A3F-AD8E-48A8-BB6F-CD64DD3C3F81}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="11_F25DC773A252ABDACC104886491D62825BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CCADEAA-7D71-4739-B2DD-77D96548F6EB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WK1" sheetId="1" r:id="rId1"/>
@@ -4583,8 +4583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B66EFEC-0A49-4E39-AC0C-F291CA17E175}">
   <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6873,8 +6873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290C7293-A7F4-45C5-BACA-B3E49C45DE2E}">
   <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9163,8 +9163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC3F99D-339F-4E23-AF8E-EAF5C6C47E04}">
   <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9770,7 +9770,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>222</v>
@@ -11459,2302 +11459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7CF7B3-A824-4CE3-AD19-A2A43A01BEF6}">
   <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A115" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A116" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A117" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A118" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A119" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A120" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A121" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A122" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A123" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A124" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A125" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A126" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A127" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A128" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A129" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A130" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A131" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A132" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A133" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A134" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A135" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A136" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A137" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A138" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A139" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A140" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A141" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A142" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A143" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A144" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A145" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A146" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A147" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A148" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A149" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A150" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A151" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A152" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7858673E-258B-46CA-B38A-FB2F7EEBE6EE}">
-  <dimension ref="A1:M152"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13770,7 +11476,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>216</v>
@@ -13819,6 +11525,2302 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7858673E-258B-46CA-B38A-FB2F7EEBE6EE}">
+  <dimension ref="A1:M152"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -13955,7 +13957,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>243</v>
@@ -25186,7 +25188,7 @@
   <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
